--- a/docs/benchmark.xlsx
+++ b/docs/benchmark.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F939F-C115-4863-B761-4C2420799429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86EF13-B75E-4951-A1D8-340CBA961C04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>trans</t>
   </si>
   <si>
-    <t>binary_search_tree.java</t>
-  </si>
-  <si>
     <t>keychain.jpeg</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>screenshot.png</t>
+  </si>
+  <si>
+    <t>cities.sql</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
                   <c:v>keychain.jpeg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>binary_search_tree.java</c:v>
+                  <c:v>cities.sql</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -317,7 +317,7 @@
                   <c:v>86172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7404</c:v>
+                  <c:v>4284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,7 +447,7 @@
                   <c:v>keychain.jpeg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>binary_search_tree.java</c:v>
+                  <c:v>cities.sql</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,7 +474,7 @@
                   <c:v>120040</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5201</c:v>
+                  <c:v>3091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -604,7 +604,7 @@
                   <c:v>keychain.jpeg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>binary_search_tree.java</c:v>
+                  <c:v>cities.sql</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -631,7 +631,7 @@
                   <c:v>85959</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13204</c:v>
+                  <c:v>6545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,7 +3287,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>54984</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>17638</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>97786</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>20164</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>85959</v>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>13204</v>
+        <v>6545</v>
       </c>
       <c r="C22">
-        <v>7404</v>
+        <v>4284</v>
       </c>
       <c r="D22">
-        <v>5201</v>
+        <v>3091</v>
       </c>
     </row>
   </sheetData>
